--- a/biology/Médecine/Henry_Michel_du_Tennetar/Henry_Michel_du_Tennetar.xlsx
+++ b/biology/Médecine/Henry_Michel_du_Tennetar/Henry_Michel_du_Tennetar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Michel du Tennetar (1742-1800) est un médecin français. Il fut le premier professeur de chimie de la faculté de médecine de Nancy[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Michel du Tennetar (1742-1800) est un médecin français. Il fut le premier professeur de chimie de la faculté de médecine de Nancy.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un maître tailleur, Henry Michel voit le jour à Metz, dans les Trois-Évêchés, le 22 février 1742. Adolescent, il rentre comme aide-soignant à l’Hôpital militaire du Fort Moselle de Metz. Il se rend ensuite à Paris, puis revient à Metz en 1765. Membre de la Société des Philatènes de Metz, il fait des études de médecine à Nancy, où il obtient un doctorat. En 1770, Henry Michel, qui signe alors Michel du Tennetar, part à Paris et se forme à la médecine avec Pierre Isaac Poissonnier, un ancien inspecteur des hôpitaux militaires. Il suit alors probablement les cours des chimistes Balthazar Georges Sage et de Pierre Joseph Macquer.
 De retour en Lorraine en 1775, Henry Michel du Tennetar est recruté comme médecin stipendié à Nomeny. Correspondant du Collège royal de médecine de Nancy, il s’associe avec un apothicaire pour enseigner la chimie à partir de 1776. La Faculté de médecine crée pour lui une chaire de chimie à Nancy. Sollicité en 1778 par la ville de Metz pour donner un cours similaire, il retourne à Metz, où il s’installe comme médecin. Membre de la Société royale des sciences et des arts de Metz, il est nommé médecin militaire en 1782, chargé de la salubrité publique à Metz. En 1790, Michel du Tennetar est nommé professeur de chimie à l’École d’artillerie, puis professeur de physique et chimie à l'École centrale de la Moselle.
@@ -544,7 +558,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lettre à M. P***, doct. méd., sur les flux dyssentériques, épidémiques en Lorraine, 1777.
 Élémens de chymie, rédigés d'après les découvertes modernes, ou Précis des leçons publiques de la Société royale des sciences et des arts de Metz, Gerlache, 1779.
